--- a/테이블/테이블 원본/Table_v_1.2.4.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\테이블\테이블 원본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FF748B-56D9-4F18-A37B-222D90FF3E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539B743-76AB-421E-8E1D-163D289366CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -52,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="525">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2014,6 +2012,41 @@
   </si>
   <si>
     <t>Tex_03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 그려달라 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작해달라 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://assetstore.unity.com/packages/tools/particles-effects/eye-blink-effect-fps-vr-61275</t>
+  </si>
+  <si>
+    <t>흰색 효과에 주목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시만들어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML에서 조절할 수 있게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2094,7 +2127,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2229,6 +2262,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2241,7 +2283,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,11 +2360,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2330,19 +2390,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2354,14 +2408,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -7053,10 +7101,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37DF736-B425-4D53-8E61-0752F43CE680}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7066,7 +7114,7 @@
     <col min="4" max="4" width="60.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="25" t="s">
         <v>463</v>
       </c>
@@ -7083,253 +7131,301 @@
         <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
         <v>467</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="26" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="26" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="33">
+      <c r="F3" s="29" t="s">
+        <v>516</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="33">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="26" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="26" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="26" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="26" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="33">
+      <c r="F5" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="33">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="26" t="s">
         <v>480</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="28" t="s">
         <v>482</v>
       </c>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="26" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="49.5">
+      <c r="F6" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="49.5">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="28" t="s">
         <v>484</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="26" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="33">
+      <c r="F7" s="30" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="26" t="s">
         <v>485</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="28" t="s">
         <v>487</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="26" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="30" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="38" t="s">
+      <c r="B9" s="26" t="s">
         <v>488</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="33">
+      <c r="F9" s="30" t="s">
+        <v>522</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="26" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="28" t="s">
         <v>491</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="26" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="33">
+    <row r="11" spans="1:9" ht="33">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="28" t="s">
         <v>493</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="26" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="29" t="s">
+        <v>524</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="26" t="s">
         <v>494</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="26" t="s">
         <v>500</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="26" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33">
+    <row r="13" spans="1:9" ht="33">
       <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="26" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="26" t="s">
         <v>472</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="26" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="33">
+      <c r="F13" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="33">
       <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="26" t="s">
         <v>498</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D14" s="28" t="s">
         <v>497</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="26" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="29" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="26" t="s">
         <v>499</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="29" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="26" t="s">
         <v>512</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
         <v>515</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
@@ -10210,22 +10306,22 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:9">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
@@ -10374,24 +10470,24 @@
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="28" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="E21" s="29"/>
-      <c r="H21" s="26" t="s">
+      <c r="E21" s="35"/>
+      <c r="H21" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="9">
@@ -10406,18 +10502,18 @@
       <c r="E22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="27" t="s">
+      <c r="H22" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="27"/>
-      <c r="J22" s="30" t="s">
+      <c r="I22" s="32"/>
+      <c r="J22" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="9">
@@ -10432,18 +10528,18 @@
       <c r="E23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="27"/>
-      <c r="J23" s="30" t="s">
+      <c r="I23" s="32"/>
+      <c r="J23" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="9">
@@ -10462,56 +10558,64 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="H28" s="26" t="s">
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="H28" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="13">
         <v>0</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="H29" s="27" t="s">
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="H29" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="13">
         <v>1</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="H30" s="27" t="s">
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="H30" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -10521,14 +10625,6 @@
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10549,23 +10645,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
       <c r="D4" s="5" t="s">
         <v>71</v>
       </c>
@@ -10574,9 +10670,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="5" t="s">
         <v>73</v>
       </c>
@@ -10585,11 +10681,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
@@ -10598,9 +10694,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="27"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
@@ -10609,11 +10705,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
@@ -10622,9 +10718,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
@@ -10633,41 +10729,41 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
@@ -10676,9 +10772,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
       <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
@@ -10687,11 +10783,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
       <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
@@ -10700,9 +10796,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
@@ -10711,11 +10807,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
       <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
@@ -10724,9 +10820,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
@@ -10735,11 +10831,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="5" t="s">
         <v>71</v>
       </c>
@@ -10748,9 +10844,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="5" t="s">
         <v>73</v>
       </c>
@@ -10760,16 +10856,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="A10:C11"/>
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="A16:C17"/>
     <mergeCell ref="A14:C15"/>
     <mergeCell ref="A12:C13"/>
     <mergeCell ref="F10:G11"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="A4:C5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="A10:C11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/테이블/테이블 원본/Table_v_1.2.4.xlsx
+++ b/테이블/테이블 원본/Table_v_1.2.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\테이블\테이블 원본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1539B743-76AB-421E-8E1D-163D289366CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37391278-7E8F-42BC-9BCE-617C6878A3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="526">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2015,10 +2015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ㅇ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이미지 그려달라 해야함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2027,26 +2023,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>흰색 효과에 주목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시만들어야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XML에서 조절할 수 있게 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://assetstore.unity.com/packages/tools/particles-effects/eye-blink-effect-fps-vr-61275</t>
-  </si>
-  <si>
-    <t>흰색 효과에 주목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다시만들어야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XML에서 조절할 수 있게 함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료인데 어색함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블러 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2283,7 +2288,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2375,19 +2380,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2406,9 +2417,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7101,10 +7109,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37DF736-B425-4D53-8E61-0752F43CE680}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7147,8 +7155,11 @@
       <c r="E2" s="26" t="s">
         <v>501</v>
       </c>
-      <c r="I2" t="s">
-        <v>519</v>
+      <c r="F2" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7168,10 +7179,10 @@
         <v>502</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="33">
@@ -7191,7 +7202,7 @@
         <v>503</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7211,7 +7222,7 @@
         <v>505</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="33">
@@ -7231,7 +7242,7 @@
         <v>506</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5">
@@ -7251,7 +7262,7 @@
         <v>507</v>
       </c>
       <c r="F7" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33">
@@ -7271,7 +7282,7 @@
         <v>508</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7289,10 +7300,10 @@
         <v>504</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33">
@@ -7311,6 +7322,9 @@
       <c r="E10" s="26" t="s">
         <v>509</v>
       </c>
+      <c r="F10" s="30" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="33">
       <c r="A11" s="8">
@@ -7329,10 +7343,10 @@
         <v>510</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G11" s="29" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7351,6 +7365,9 @@
       <c r="E12" s="26" t="s">
         <v>511</v>
       </c>
+      <c r="F12" s="30" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="33">
       <c r="A13" s="8">
@@ -7369,7 +7386,7 @@
         <v>507</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="33">
@@ -7389,7 +7406,7 @@
         <v>513</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7407,7 +7424,7 @@
         <v>514</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7425,7 +7442,15 @@
         <v>515</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>522</v>
+        <v>520</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="29" t="s">
+        <v>525</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -7442,6 +7467,7 @@
     <hyperlink ref="D11" r:id="rId9" xr:uid="{2093C80D-7987-41C8-8C29-9199AB6B29E0}"/>
     <hyperlink ref="D13" r:id="rId10" xr:uid="{94B0A918-AC8E-43D3-9725-FBC054E75734}"/>
     <hyperlink ref="D14" r:id="rId11" xr:uid="{3ED18D0E-B713-4A76-A072-D4EA64E9D90B}"/>
+    <hyperlink ref="I2" r:id="rId12" xr:uid="{AD06EFFB-DBCF-4BB5-91FF-5C8A03ACE97A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10306,22 +10332,22 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:9">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31" t="s">
+      <c r="E8" s="32"/>
+      <c r="F8" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="2">
@@ -10470,24 +10496,24 @@
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="C21" s="31"/>
+      <c r="C21" s="32"/>
       <c r="D21" s="34" t="s">
         <v>91</v>
       </c>
       <c r="E21" s="35"/>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="9">
@@ -10502,18 +10528,18 @@
       <c r="E22" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="33" t="s">
         <v>143</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="33" t="s">
+      <c r="I22" s="33"/>
+      <c r="J22" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="9">
@@ -10528,18 +10554,18 @@
       <c r="E23" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H23" s="33" t="s">
         <v>144</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="33" t="s">
+      <c r="I23" s="33"/>
+      <c r="J23" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="9">
@@ -10558,64 +10584,56 @@
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="H28" s="31" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="H28" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="13">
         <v>0</v>
       </c>
-      <c r="C29" s="32" t="s">
+      <c r="C29" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="H29" s="32" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="H29" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="13">
         <v>1</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="H30" s="32" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="H30" s="33" t="s">
         <v>191</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H21:O21"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="C30:E30"/>
@@ -10625,6 +10643,14 @@
     <mergeCell ref="H28:L28"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H21:O21"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10645,23 +10671,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="5" t="s">
         <v>71</v>
       </c>
@@ -10670,9 +10696,9 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="5" t="s">
         <v>73</v>
       </c>
@@ -10681,11 +10707,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="5" t="s">
         <v>71</v>
       </c>
@@ -10694,9 +10720,9 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="5" t="s">
         <v>77</v>
       </c>
@@ -10705,11 +10731,11 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="5" t="s">
         <v>71</v>
       </c>
@@ -10718,9 +10744,9 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="32"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="5" t="s">
         <v>73</v>
       </c>
@@ -10729,41 +10755,41 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="5" t="s">
         <v>71</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G10" s="32"/>
+      <c r="G10" s="33"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="5" t="s">
         <v>71</v>
       </c>
@@ -10772,9 +10798,9 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="5" t="s">
         <v>73</v>
       </c>
@@ -10783,11 +10809,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="5" t="s">
         <v>71</v>
       </c>
@@ -10796,9 +10822,9 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="5" t="s">
         <v>73</v>
       </c>
@@ -10807,11 +10833,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="33" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="5" t="s">
         <v>71</v>
       </c>
@@ -10820,9 +10846,9 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="5" t="s">
         <v>73</v>
       </c>
@@ -10831,11 +10857,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="38" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="5" t="s">
         <v>71</v>
       </c>
@@ -10844,9 +10870,9 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="41"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="5" t="s">
         <v>73</v>
       </c>
@@ -10856,16 +10882,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A16:C17"/>
+    <mergeCell ref="A14:C15"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="F10:G11"/>
     <mergeCell ref="A2:C3"/>
     <mergeCell ref="A4:C5"/>
     <mergeCell ref="A6:C7"/>
     <mergeCell ref="A8:C9"/>
     <mergeCell ref="A10:C11"/>
-    <mergeCell ref="A18:C19"/>
-    <mergeCell ref="A16:C17"/>
-    <mergeCell ref="A14:C15"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="F10:G11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
